--- a/SGS/Variogramas_2_str/Tabela_variogramas_SGS.xlsx
+++ b/SGS/Variogramas_2_str/Tabela_variogramas_SGS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Azimute</t>
   </si>
@@ -55,13 +55,40 @@
   </si>
   <si>
     <t>Omnidirecional</t>
+  </si>
+  <si>
+    <t>Parâmetros de Lags</t>
+  </si>
+  <si>
+    <t>Número de Lags</t>
+  </si>
+  <si>
+    <t>Lag separation</t>
+  </si>
+  <si>
+    <t>Lag tolerance</t>
+  </si>
+  <si>
+    <t>Directions</t>
+  </si>
+  <si>
+    <t>Número de direções</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>11.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +117,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +220,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,13 +552,13 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -502,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -510,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -518,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -526,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -534,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -542,7 +606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -550,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,306 +622,251 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D21" s="4">
         <v>45</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
         <v>90</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
         <v>135</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3</v>
-      </c>
-      <c r="H14" s="6">
-        <v>3</v>
-      </c>
-      <c r="I14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-      <c r="G16" s="6">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6">
-        <v>3</v>
-      </c>
-      <c r="I16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5">
-        <v>64</v>
-      </c>
-      <c r="C17" s="5">
-        <v>40</v>
-      </c>
-      <c r="D17" s="5">
-        <v>32</v>
-      </c>
-      <c r="E17" s="7">
-        <v>26</v>
-      </c>
-      <c r="F17" s="5">
-        <v>50</v>
-      </c>
-      <c r="G17" s="5">
-        <v>54</v>
-      </c>
-      <c r="H17" s="5">
-        <v>42</v>
-      </c>
-      <c r="I17" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6">
-        <v>3</v>
-      </c>
-      <c r="G18" s="6">
-        <v>3</v>
-      </c>
-      <c r="H18" s="6">
-        <v>3</v>
-      </c>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2">
-        <v>22</v>
-      </c>
-      <c r="H19" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3</v>
+      </c>
+      <c r="H23" s="6">
+        <v>3</v>
+      </c>
+      <c r="I23" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6">
+        <v>3</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="5">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="D26" s="5">
+        <v>32</v>
+      </c>
+      <c r="E26" s="7">
+        <v>26</v>
+      </c>
+      <c r="F26" s="5">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5">
+        <v>54</v>
+      </c>
+      <c r="H26" s="5">
+        <v>42</v>
+      </c>
+      <c r="I26" s="7">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -865,50 +874,167 @@
         <v>7</v>
       </c>
       <c r="B27" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="2">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>24</v>
+      </c>
+      <c r="E28" s="8">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2">
+        <v>22</v>
+      </c>
+      <c r="H28" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="5">
         <v>12</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C37" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="6">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B38" s="6">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B39" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C39" s="2">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A22:C22"/>
+  <mergeCells count="5">
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
